--- a/data/EDDT_Dem_ACS2015-2019.xlsx
+++ b/data/EDDT_Dem_ACS2015-2019.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nyco365-my.sharepoint.com/personal/emaurer_planning_nyc_gov/Documents/Attachments/EDDT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_carper\Documents\GitHub\NYC-PUMA-Economic-Clusters\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07B65457-2E7D-424A-9C34-AEBB57D1D83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07094FF0-367B-4586-8D0E-2A9E8AC4EE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{D40838DF-BA54-498F-B08D-9DD1DB920F00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D40838DF-BA54-498F-B08D-9DD1DB920F00}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Dictionary" sheetId="2" r:id="rId1"/>
-    <sheet name="Dem15-19" sheetId="1" r:id="rId2"/>
+    <sheet name="Dem15-19" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -871,7 +871,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1313,242 +1313,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24ECA38F-184B-4D15-ACB1-3FC2C0DFD6E3}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B985F95-C6D7-4261-B392-893FED431D8D}">
   <dimension ref="A1:HR62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -1732,7 +1507,7 @@
     <col min="226" max="226" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:226">
+    <row r="1" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -2412,7 +2187,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:226">
+    <row r="2" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>268</v>
       </c>
@@ -3092,7 +2867,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:226">
+    <row r="3" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>270</v>
       </c>
@@ -3772,7 +3547,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:226">
+    <row r="4" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>271</v>
       </c>
@@ -4452,7 +4227,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:226">
+    <row r="5" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>272</v>
       </c>
@@ -5132,7 +4907,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:226">
+    <row r="6" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>273</v>
       </c>
@@ -5812,7 +5587,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:226">
+    <row r="7" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>274</v>
       </c>
@@ -6492,7 +6267,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:226">
+    <row r="8" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3701</v>
       </c>
@@ -7172,7 +6947,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:226">
+    <row r="9" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3702</v>
       </c>
@@ -7852,7 +7627,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:226">
+    <row r="10" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3703</v>
       </c>
@@ -8532,7 +8307,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:226">
+    <row r="11" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3704</v>
       </c>
@@ -9212,7 +8987,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:226">
+    <row r="12" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3705</v>
       </c>
@@ -9892,7 +9667,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:226">
+    <row r="13" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3706</v>
       </c>
@@ -10572,7 +10347,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:226">
+    <row r="14" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3707</v>
       </c>
@@ -11252,7 +11027,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:226">
+    <row r="15" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3708</v>
       </c>
@@ -11932,7 +11707,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:226">
+    <row r="16" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3709</v>
       </c>
@@ -12612,7 +12387,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:226">
+    <row r="17" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3710</v>
       </c>
@@ -13292,7 +13067,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:226">
+    <row r="18" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3801</v>
       </c>
@@ -13972,7 +13747,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:226">
+    <row r="19" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3802</v>
       </c>
@@ -14652,7 +14427,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:226">
+    <row r="20" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3803</v>
       </c>
@@ -15332,7 +15107,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:226">
+    <row r="21" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3804</v>
       </c>
@@ -16012,7 +15787,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:226">
+    <row r="22" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3805</v>
       </c>
@@ -16692,7 +16467,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:226">
+    <row r="23" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3806</v>
       </c>
@@ -17372,7 +17147,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:226">
+    <row r="24" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3807</v>
       </c>
@@ -18052,7 +17827,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="1:226">
+    <row r="25" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3808</v>
       </c>
@@ -18732,7 +18507,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:226">
+    <row r="26" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3809</v>
       </c>
@@ -19412,7 +19187,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:226">
+    <row r="27" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3810</v>
       </c>
@@ -20092,7 +19867,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:226">
+    <row r="28" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3901</v>
       </c>
@@ -20772,7 +20547,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:226">
+    <row r="29" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3902</v>
       </c>
@@ -21452,7 +21227,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:226">
+    <row r="30" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3903</v>
       </c>
@@ -22132,7 +21907,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:226">
+    <row r="31" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>4001</v>
       </c>
@@ -22812,7 +22587,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:226">
+    <row r="32" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>4002</v>
       </c>
@@ -23492,7 +23267,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:226">
+    <row r="33" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4003</v>
       </c>
@@ -24172,7 +23947,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:226">
+    <row r="34" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4004</v>
       </c>
@@ -24852,7 +24627,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:226">
+    <row r="35" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4005</v>
       </c>
@@ -25532,7 +25307,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:226">
+    <row r="36" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>4006</v>
       </c>
@@ -26212,7 +25987,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:226">
+    <row r="37" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4007</v>
       </c>
@@ -26892,7 +26667,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:226">
+    <row r="38" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>4008</v>
       </c>
@@ -27572,7 +27347,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:226">
+    <row r="39" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>4009</v>
       </c>
@@ -28252,7 +28027,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="1:226">
+    <row r="40" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>4010</v>
       </c>
@@ -28932,7 +28707,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:226">
+    <row r="41" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>4011</v>
       </c>
@@ -29612,7 +29387,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:226">
+    <row r="42" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>4012</v>
       </c>
@@ -30292,7 +30067,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:226">
+    <row r="43" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>4013</v>
       </c>
@@ -30972,7 +30747,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:226">
+    <row r="44" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>4014</v>
       </c>
@@ -31652,7 +31427,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:226">
+    <row r="45" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>4015</v>
       </c>
@@ -32332,7 +32107,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:226">
+    <row r="46" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>4016</v>
       </c>
@@ -33012,7 +32787,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:226">
+    <row r="47" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>4017</v>
       </c>
@@ -33692,7 +33467,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="48" spans="1:226">
+    <row r="48" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>4018</v>
       </c>
@@ -34372,7 +34147,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:226">
+    <row r="49" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>4101</v>
       </c>
@@ -35052,7 +34827,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="1:226">
+    <row r="50" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4102</v>
       </c>
@@ -35732,7 +35507,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:226">
+    <row r="51" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>4103</v>
       </c>
@@ -36412,7 +36187,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:226">
+    <row r="52" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>4104</v>
       </c>
@@ -37092,7 +36867,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="53" spans="1:226">
+    <row r="53" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>4105</v>
       </c>
@@ -37772,7 +37547,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:226">
+    <row r="54" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>4106</v>
       </c>
@@ -38452,7 +38227,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:226">
+    <row r="55" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>4107</v>
       </c>
@@ -39132,7 +38907,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:226">
+    <row r="56" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>4108</v>
       </c>
@@ -39812,7 +39587,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:226">
+    <row r="57" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>4109</v>
       </c>
@@ -40492,7 +40267,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:226">
+    <row r="58" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>4110</v>
       </c>
@@ -41172,7 +40947,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:226">
+    <row r="59" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>4111</v>
       </c>
@@ -41852,7 +41627,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:226">
+    <row r="60" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>4112</v>
       </c>
@@ -42532,7 +42307,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:226">
+    <row r="61" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>4113</v>
       </c>
@@ -43212,7 +42987,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:226">
+    <row r="62" spans="1:226" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>4114</v>
       </c>
@@ -43890,6 +43665,231 @@
       </c>
       <c r="HR62" s="10" t="s">
         <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24ECA38F-184B-4D15-ACB1-3FC2C0DFD6E3}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -43907,12 +43907,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003AC4EC9EEC787747A21020991D7C5A0C" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9591f2c22eb77891f7786dab03d70d3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a006254a-362b-4ff4-965e-371f488d1924" xmlns:ns4="0974b3c8-8b09-43c3-8cba-9a7da3221e79" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7207b9d247d4a80ce5df938cda55a91" ns3:_="" ns4:_="">
     <xsd:import namespace="a006254a-362b-4ff4-965e-371f488d1924"/>
@@ -44121,14 +44115,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{585E0458-BB91-4ED1-B7D4-012FCFA788A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{585E0458-BB91-4ED1-B7D4-012FCFA788A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DABAA4FA-9FF6-4EFD-A5FC-6723A92DCEFB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51D0B818-A25F-4D87-BBB5-1B871A87C168}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a006254a-362b-4ff4-965e-371f488d1924"/>
+    <ds:schemaRef ds:uri="0974b3c8-8b09-43c3-8cba-9a7da3221e79"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51D0B818-A25F-4D87-BBB5-1B871A87C168}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DABAA4FA-9FF6-4EFD-A5FC-6723A92DCEFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>